--- a/沈阳鹏斓面辅料采购程序/表10.核算表.xlsx
+++ b/沈阳鹏斓面辅料采购程序/表10.核算表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="9000"/>
+    <workbookView windowWidth="19200" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -557,14 +557,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,15 +588,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,8 +612,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,8 +648,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,30 +671,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -702,49 +719,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -777,7 +770,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,163 +920,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,6 +942,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -1265,15 +1258,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1296,19 +1280,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1324,21 +1312,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1361,8 +1334,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1371,148 +1364,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2039,8 +2032,8 @@
   <sheetPr/>
   <dimension ref="A1:P181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2089,7 +2082,7 @@
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" ht="14.25" spans="1:5">
+    <row r="3" spans="1:5">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
